--- a/LF/PreTAS/Ivory Coast/Avr 2022/ci_lf_pretas_2_participant_202204.xlsx
+++ b/LF/PreTAS/Ivory Coast/Avr 2022/ci_lf_pretas_2_participant_202204.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\May 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jboulinzann\Documents\Mes dev\WHO\FORMS\Ivory Coast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBBDD38-58AD-4226-9C8C-B0343E970A6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00157ECA-B582-4471-AB32-5F2D2165434D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -347,12 +347,6 @@
     <t>Code d'identification du répondant (Veuillez recopier ce code tel qu'il est quelque part entre autre sur les test de diagnostique)</t>
   </si>
   <si>
-    <t>ci_lf_pretas_2_participant_202105_v4</t>
-  </si>
-  <si>
-    <t>(May 2021) 2. Côte d'Ivoire -  Pre TAS FL Formulaire Participants V4</t>
-  </si>
-  <si>
     <t>Must be between 1 and 500</t>
   </si>
   <si>
@@ -369,6 +363,12 @@
   </si>
   <si>
     <t>Numéro d'ordre</t>
+  </si>
+  <si>
+    <t>(April 2022) 2. Côte d'Ivoire -  Pre TAS FL Formulaire Participants V1</t>
+  </si>
+  <si>
+    <t>ci_lf_pretas_2_participant_202204_v1</t>
   </si>
 </sst>
 </file>
@@ -830,34 +830,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.25" customWidth="1"/>
+    <col min="3" max="3" width="42.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.19921875" customWidth="1"/>
     <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="47.375" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.3984375" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" customWidth="1"/>
+    <col min="8" max="8" width="16.8984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.5" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.375" customWidth="1"/>
-    <col min="15" max="15" width="13.875" customWidth="1"/>
-    <col min="16" max="16" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.3984375" customWidth="1"/>
+    <col min="15" max="15" width="13.8984375" customWidth="1"/>
+    <col min="16" max="16" width="36.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -910,7 +910,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1029,7 +1029,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1059,7 +1059,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>27</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1129,7 +1129,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1140,23 +1140,23 @@
         <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>70</v>
@@ -1169,7 +1169,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1234,7 +1234,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1270,7 +1270,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1369,15 +1369,15 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>61</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>61</v>
       </c>
@@ -1462,19 +1462,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1488,15 +1488,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C2">
-        <v>20210511</v>
+        <v>20220405</v>
       </c>
       <c r="D2" t="s">
         <v>79</v>
